--- a/sample issues.xlsx
+++ b/sample issues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\wleong\Documents\_personal\gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B116ADBE-3D9C-427E-BADF-0439C37D6AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960C6EEA-11E0-41DE-8BA0-D119CF66038A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B36B40EC-F4E5-411A-A001-B71F5DCC2AD9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B36B40EC-F4E5-411A-A001-B71F5DCC2AD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,9 +141,6 @@
     <t>Wilson</t>
   </si>
   <si>
-    <t>TBC</t>
-  </si>
-  <si>
     <t>Kenneth</t>
   </si>
   <si>
@@ -313,6 +310,9 @@
   </si>
   <si>
     <t>Siobhan</t>
+  </si>
+  <si>
+    <t>(TBC)</t>
   </si>
 </sst>
 </file>
@@ -777,11 +777,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D647030-01FE-42B8-A51B-2D34F65F5888}">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,14 +802,10 @@
     <col min="14" max="14" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="24.42578125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="39.140625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="36.140625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="40.7109375" style="4" customWidth="1"/>
-    <col min="20" max="20" width="40.7109375" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="2"/>
+    <col min="17" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -858,15 +854,13 @@
       <c r="P1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>44278</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>27</v>
@@ -881,44 +875,42 @@
         <v>19</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>44286</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>27</v>
@@ -933,42 +925,40 @@
         <v>20</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P3" s="3"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>44293</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>27</v>
@@ -983,42 +973,40 @@
         <v>22</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P4" s="3"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>44300</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>27</v>
@@ -1033,42 +1021,40 @@
         <v>21</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="O5" s="2" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="P5" s="3"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>44316</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>27</v>
@@ -1083,42 +1069,40 @@
         <v>23</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P6" s="3"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>44323</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>27</v>
@@ -1133,42 +1117,40 @@
         <v>24</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P7" s="3"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>44326</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>27</v>
@@ -1183,42 +1165,40 @@
         <v>25</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P8" s="3"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-    </row>
-    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>44329</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>6</v>
@@ -1233,42 +1213,40 @@
         <v>19</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P9" s="3"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>44336</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>6</v>
@@ -1283,42 +1261,40 @@
         <v>20</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P10" s="3"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-    </row>
-    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>44343</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>6</v>
@@ -1333,42 +1309,40 @@
         <v>22</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P11" s="3"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>44349</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>6</v>
@@ -1383,42 +1357,40 @@
         <v>21</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="P12" s="3"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>44355</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>6</v>
@@ -1433,42 +1405,40 @@
         <v>23</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P13" s="3"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>44357</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>6</v>
@@ -1483,42 +1453,40 @@
         <v>24</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P14" s="3"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>44364</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>6</v>
@@ -1533,42 +1501,40 @@
         <v>25</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>30</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P15" s="3"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>44368</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>6</v>
@@ -1583,42 +1549,40 @@
         <v>19</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P16" s="3"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>44371</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>6</v>
@@ -1633,42 +1597,40 @@
         <v>20</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P17" s="3"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>44375</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>6</v>
@@ -1683,42 +1645,40 @@
         <v>22</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P18" s="3"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>44379</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>6</v>
@@ -1733,42 +1693,40 @@
         <v>21</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>29</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="P19" s="3"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>44382</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>6</v>
@@ -1783,42 +1741,40 @@
         <v>23</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>28</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P20" s="3"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-    </row>
-    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>44389</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>6</v>
@@ -1833,42 +1789,40 @@
         <v>24</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P21" s="3"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-    </row>
-    <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>44392</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>6</v>
@@ -1883,42 +1837,40 @@
         <v>25</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P22" s="3"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>44397</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>7</v>
@@ -1931,40 +1883,40 @@
         <v>19</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>44404</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>7</v>
@@ -1977,40 +1929,40 @@
         <v>20</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P24" s="3"/>
     </row>
-    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>44411</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>7</v>
@@ -2023,40 +1975,40 @@
         <v>22</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>31</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P25" s="3"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>44417</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>7</v>
@@ -2069,40 +2021,40 @@
         <v>21</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>29</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="P26" s="3"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>44424</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>26</v>
@@ -2115,40 +2067,40 @@
         <v>23</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>28</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>34</v>
       </c>
       <c r="P27" s="3"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>44431</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>26</v>
@@ -2161,40 +2113,40 @@
         <v>24</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P28" s="3"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>44438</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>26</v>
@@ -2207,28 +2159,28 @@
         <v>25</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>30</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>32</v>

--- a/sample issues.xlsx
+++ b/sample issues.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\wleong\Documents\_personal\gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960C6EEA-11E0-41DE-8BA0-D119CF66038A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BDC659-72DE-416D-925E-7A76FA2E1E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{B36B40EC-F4E5-411A-A001-B71F5DCC2AD9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{B36B40EC-F4E5-411A-A001-B71F5DCC2AD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -781,7 +781,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>44329</v>
+        <v>44287</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>40</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>44336</v>
+        <v>44286</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>85</v>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>44343</v>
+        <v>44301</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>80</v>
@@ -1300,10 +1300,10 @@
         <v>6</v>
       </c>
       <c r="D11" s="3">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E11" s="5">
-        <v>44454</v>
+        <v>44501</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>22</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>44349</v>
+        <v>44256</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>70</v>
@@ -1348,7 +1348,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="3">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="E12" s="5">
         <v>44561</v>
@@ -1636,10 +1636,10 @@
         <v>6</v>
       </c>
       <c r="D18" s="3">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E18" s="5">
-        <v>44469</v>
+        <v>44530</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>22</v>

--- a/sample issues.xlsx
+++ b/sample issues.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\wleong\Documents\_personal\gantt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wilson\Documents\Python Scripts\tools\gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BDC659-72DE-416D-925E-7A76FA2E1E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{B36B40EC-F4E5-411A-A001-B71F5DCC2AD9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="95">
   <si>
     <t>Status</t>
   </si>
@@ -313,12 +312,18 @@
   </si>
   <si>
     <t>(TBC)</t>
+  </si>
+  <si>
+    <t>Reference Date</t>
+  </si>
+  <si>
+    <t>Reference Date 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddd\,\ dd\ mmm\ yyyy"/>
   </numFmts>
@@ -389,13 +394,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <numFmt numFmtId="164" formatCode="ddd\,\ dd\ mmm\ yyyy"/>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -419,8 +424,17 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="ddd\,\ dd\ mmm\ yyyy"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -430,12 +444,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="164" formatCode="ddd\,\ dd\ mmm\ yyyy"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -456,25 +469,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A814EDC3-C4BC-4053-B689-202FEF85FDA5}" name="Table1" displayName="Table1" ref="A1:P29" totalsRowShown="0">
-  <autoFilter ref="A1:P29" xr:uid="{141CA3EC-A1F5-426E-8AB0-5171321DFE1D}"/>
-  <tableColumns count="16">
-    <tableColumn id="2" xr3:uid="{929A5971-FA07-4254-B0DC-D163AC3D7A06}" name="Date Opened" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{9BB0E118-6E19-4C56-8047-CDA9B925D818}" name="Task" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{37FA0351-D990-4925-806E-7480BB0B0B9A}" name="Status" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{C0E8BEF0-AEC2-4D88-B0A2-0E8A6B35662B}" name="PctCompleted" dataDxfId="0"/>
-    <tableColumn id="11" xr3:uid="{A5B9CF63-0514-47AD-BFB5-DD4D27C160A2}" name="ETA" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{E4305A27-406C-4537-9E12-84433A2DC73D}" name="App" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{9D43B147-BEB1-4A11-B665-9691A4C33D12}" name="Fix Component" dataDxfId="10"/>
-    <tableColumn id="1" xr3:uid="{A4EE4050-800C-4B45-9E2D-A5C5367F9C73}" name="Issue Category" dataDxfId="12"/>
-    <tableColumn id="14" xr3:uid="{DF817EDF-AF98-410B-844A-6C1722C0792C}" name="Impact" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{29A00706-1640-458F-9822-358660642F7D}" name="Priority" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{85C480E0-2784-4BD2-99B2-D02DBD413983}" name="Business Line" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{EF85A31E-8143-4449-B54E-CBCD4492878B}" name="Region" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{A652B022-C078-40B3-BA5C-0A189ABB7C26}" name="Sponsor" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{201D38BA-B2B8-4532-9F63-77B99E9547AF}" name="Requestor" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{30147BAF-B3F6-49D6-A06E-DD49A523C1B2}" name="Assignee" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{4EA3F13B-D947-4259-8536-2D3E88F3B1A6}" name="Comment" dataDxfId="13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:R29" totalsRowShown="0">
+  <autoFilter ref="A1:R29"/>
+  <tableColumns count="18">
+    <tableColumn id="2" name="Date Opened" dataDxfId="17"/>
+    <tableColumn id="10" name="Task" dataDxfId="16"/>
+    <tableColumn id="17" name="Reference Date" dataDxfId="15"/>
+    <tableColumn id="18" name="Reference Date 2" dataDxfId="0">
+      <calculatedColumnFormula>data[[#This Row],[Reference Date]]+7</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Status" dataDxfId="14"/>
+    <tableColumn id="13" name="PctCompleted" dataDxfId="13"/>
+    <tableColumn id="11" name="ETA" dataDxfId="12"/>
+    <tableColumn id="7" name="App" dataDxfId="11"/>
+    <tableColumn id="4" name="Fix Component" dataDxfId="10"/>
+    <tableColumn id="1" name="Issue Category" dataDxfId="9"/>
+    <tableColumn id="14" name="Impact" dataDxfId="8"/>
+    <tableColumn id="15" name="Priority" dataDxfId="7"/>
+    <tableColumn id="5" name="Business Line" dataDxfId="6"/>
+    <tableColumn id="8" name="Region" dataDxfId="5"/>
+    <tableColumn id="9" name="Sponsor" dataDxfId="4"/>
+    <tableColumn id="12" name="Requestor" dataDxfId="3"/>
+    <tableColumn id="16" name="Assignee" dataDxfId="2"/>
+    <tableColumn id="6" name="Comment" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -776,1420 +793,1532 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D647030-01FE-42B8-A51B-2D34F65F5888}">
-  <dimension ref="A1:P29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.42578125" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30.7109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="24.42578125" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>44278</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5">
+        <v>44347</v>
+      </c>
+      <c r="D2" s="5">
+        <v>44354</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="3">
+      <c r="F2" s="3">
         <v>100</v>
       </c>
-      <c r="E2" s="5">
+      <c r="G2" s="5">
         <v>44316</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="R2" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>44286</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5">
+        <v>44316</v>
+      </c>
+      <c r="D3" s="5">
+        <v>44323</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="3">
+      <c r="F3" s="3">
         <v>100</v>
       </c>
-      <c r="E3" s="5">
+      <c r="G3" s="5">
         <v>44301</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="3"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>44293</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5">
+        <v>44347</v>
+      </c>
+      <c r="D4" s="5">
+        <v>44354</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="3">
+      <c r="F4" s="3">
         <v>100</v>
       </c>
-      <c r="E4" s="5">
+      <c r="G4" s="5">
         <v>44330</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="K4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>44300</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5">
+        <v>44347</v>
+      </c>
+      <c r="D5" s="5">
+        <v>44354</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="3">
+      <c r="F5" s="3">
         <v>100</v>
       </c>
-      <c r="E5" s="5">
+      <c r="G5" s="5">
         <v>44344</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="P5" s="3"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>44316</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5">
+        <v>44377</v>
+      </c>
+      <c r="D6" s="5">
+        <v>44384</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="3">
+      <c r="F6" s="3">
         <v>100</v>
       </c>
-      <c r="E6" s="5">
+      <c r="G6" s="5">
         <v>44377</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>44323</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5">
+        <v>44377</v>
+      </c>
+      <c r="D7" s="5">
+        <v>44384</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="3">
+      <c r="F7" s="3">
         <v>100</v>
       </c>
-      <c r="E7" s="5">
+      <c r="G7" s="5">
         <v>44407</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>44326</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5">
+        <v>44408</v>
+      </c>
+      <c r="D8" s="5">
+        <v>44415</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="3">
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="5">
+      <c r="G8" s="5">
         <v>44439</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="H8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="K8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="N8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>44287</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5">
+        <v>44469</v>
+      </c>
+      <c r="D9" s="5">
+        <v>44476</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="3">
+      <c r="F9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="5">
+      <c r="G9" s="5">
         <v>44561</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>44286</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5">
+        <v>44377</v>
+      </c>
+      <c r="D10" s="5">
+        <v>44384</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="F10" s="3">
         <v>80</v>
       </c>
-      <c r="E10" s="5">
+      <c r="G10" s="5">
         <v>44469</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>44301</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5">
+        <v>44469</v>
+      </c>
+      <c r="D11" s="5">
+        <v>44476</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="3">
+      <c r="F11" s="3">
         <v>60</v>
       </c>
-      <c r="E11" s="5">
+      <c r="G11" s="5">
         <v>44501</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="K11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>44256</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5">
+        <v>44500</v>
+      </c>
+      <c r="D12" s="5">
+        <v>44507</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="3">
+      <c r="F12" s="3">
         <v>70</v>
       </c>
-      <c r="E12" s="5">
+      <c r="G12" s="5">
         <v>44561</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="H12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="Q12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>44355</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="3">
+      <c r="F13" s="3">
         <v>50</v>
       </c>
-      <c r="E13" s="5">
+      <c r="G13" s="5">
         <v>44561</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="Q13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>44357</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="3">
+      <c r="F14" s="3">
         <v>30</v>
       </c>
-      <c r="E14" s="5">
+      <c r="G14" s="5">
         <v>44651</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="H14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="I14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="O14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="P14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="Q14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R14" s="3"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>44364</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="3">
+      <c r="F15" s="3">
         <v>90</v>
       </c>
-      <c r="E15" s="5">
+      <c r="G15" s="5">
         <v>44469</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="K15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="Q15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>44368</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="3">
+      <c r="F16" s="3">
         <v>80</v>
       </c>
-      <c r="E16" s="5">
+      <c r="G16" s="5">
         <v>44454</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="H16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="K16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="O16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="Q16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>44371</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="3">
+      <c r="F17" s="3">
         <v>75</v>
       </c>
-      <c r="E17" s="5">
+      <c r="G17" s="5">
         <v>44501</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="I17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="O17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="Q17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>44375</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="3">
+      <c r="F18" s="3">
         <v>50</v>
       </c>
-      <c r="E18" s="5">
+      <c r="G18" s="5">
         <v>44530</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="K18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="O18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="P18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="Q18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R18" s="3"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>44379</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="3">
+      <c r="F19" s="3">
         <v>70</v>
       </c>
-      <c r="E19" s="5">
+      <c r="G19" s="5">
         <v>44501</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="I19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="K19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="O19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="P19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="Q19" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>44382</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="3">
+      <c r="F20" s="3">
         <v>20</v>
       </c>
-      <c r="E20" s="5">
+      <c r="G20" s="5">
         <v>44651</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="H20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="I20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="K20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="O20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="P20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="Q20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>44389</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="3">
+      <c r="F21" s="3">
         <v>70</v>
       </c>
-      <c r="E21" s="5">
+      <c r="G21" s="5">
         <v>44469</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="H21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="I21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="K21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="N21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="O21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="P21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="Q21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>44392</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="3">
+      <c r="F22" s="3">
         <v>80</v>
       </c>
-      <c r="E22" s="5">
+      <c r="G22" s="5">
         <v>44498</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="K22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="N22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="O22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="P22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="Q22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R22" s="3"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>44397</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="3">
+      <c r="F23" s="3">
         <v>0</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="5"/>
+      <c r="H23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="I23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="O23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="P23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="Q23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="R23" s="3"/>
+    </row>
+    <row r="24" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>44404</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="3">
+      <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="5"/>
+      <c r="H24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="K24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="N24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="O24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="P24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="Q24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="R24" s="3"/>
+    </row>
+    <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>44411</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="3">
+      <c r="F25" s="3">
         <v>0</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="5"/>
+      <c r="H25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="J25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="K25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="M25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="N25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="O25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="P25" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="Q25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R25" s="3"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>44417</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="3">
+      <c r="F26" s="3">
         <v>0</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="5"/>
+      <c r="H26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="L26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="M26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="N26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="O26" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="P26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="Q26" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>44424</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="3">
+      <c r="F27" s="3">
         <v>0</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="5"/>
+      <c r="H27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="I27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="K27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="L27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="M27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="N27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="O27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="P27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="Q27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P27" s="3"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R27" s="3"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>44431</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="3">
+      <c r="F28" s="3">
         <v>0</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="5"/>
+      <c r="H28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="K28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="L28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="M28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="N28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="O28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N28" s="2" t="s">
+      <c r="P28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="Q28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>44438</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="3">
+      <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="5"/>
+      <c r="H29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="K29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="N29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="O29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N29" s="2" t="s">
+      <c r="P29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="Q29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P29" s="3"/>
+      <c r="R29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="D2:D12" calculatedColumn="1"/>
+  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/sample issues.xlsx
+++ b/sample issues.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="101">
   <si>
     <t>Status</t>
   </si>
@@ -318,6 +318,24 @@
   </si>
   <si>
     <t>Reference Date 2</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>Theme</t>
+  </si>
+  <si>
+    <t>Competitive differentiation</t>
+  </si>
+  <si>
+    <t>Grow volume</t>
+  </si>
+  <si>
+    <t>UX improvement</t>
+  </si>
+  <si>
+    <t>Analytics</t>
   </si>
 </sst>
 </file>
@@ -394,13 +412,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
     <dxf>
-      <numFmt numFmtId="164" formatCode="ddd\,\ dd\ mmm\ yyyy"/>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -448,6 +468,10 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="ddd\,\ dd\ mmm\ yyyy"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -469,29 +493,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:R29" totalsRowShown="0">
-  <autoFilter ref="A1:R29"/>
-  <tableColumns count="18">
-    <tableColumn id="2" name="Date Opened" dataDxfId="17"/>
-    <tableColumn id="10" name="Task" dataDxfId="16"/>
-    <tableColumn id="17" name="Reference Date" dataDxfId="15"/>
-    <tableColumn id="18" name="Reference Date 2" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:T29" totalsRowShown="0">
+  <autoFilter ref="A1:T29"/>
+  <tableColumns count="20">
+    <tableColumn id="2" name="Date Opened" dataDxfId="19"/>
+    <tableColumn id="10" name="Task" dataDxfId="18"/>
+    <tableColumn id="17" name="Reference Date" dataDxfId="17"/>
+    <tableColumn id="18" name="Reference Date 2" dataDxfId="16">
       <calculatedColumnFormula>data[[#This Row],[Reference Date]]+7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Status" dataDxfId="14"/>
-    <tableColumn id="13" name="PctCompleted" dataDxfId="13"/>
-    <tableColumn id="11" name="ETA" dataDxfId="12"/>
-    <tableColumn id="7" name="App" dataDxfId="11"/>
-    <tableColumn id="4" name="Fix Component" dataDxfId="10"/>
-    <tableColumn id="1" name="Issue Category" dataDxfId="9"/>
-    <tableColumn id="14" name="Impact" dataDxfId="8"/>
-    <tableColumn id="15" name="Priority" dataDxfId="7"/>
-    <tableColumn id="5" name="Business Line" dataDxfId="6"/>
-    <tableColumn id="8" name="Region" dataDxfId="5"/>
-    <tableColumn id="9" name="Sponsor" dataDxfId="4"/>
-    <tableColumn id="12" name="Requestor" dataDxfId="3"/>
-    <tableColumn id="16" name="Assignee" dataDxfId="2"/>
-    <tableColumn id="6" name="Comment" dataDxfId="1"/>
+    <tableColumn id="3" name="Status" dataDxfId="15"/>
+    <tableColumn id="13" name="PctCompleted" dataDxfId="14"/>
+    <tableColumn id="11" name="ETA" dataDxfId="13"/>
+    <tableColumn id="7" name="App" dataDxfId="12"/>
+    <tableColumn id="4" name="Fix Component" dataDxfId="11"/>
+    <tableColumn id="1" name="Issue Category" dataDxfId="10"/>
+    <tableColumn id="20" name="Epic" dataDxfId="9"/>
+    <tableColumn id="19" name="Theme" dataDxfId="8"/>
+    <tableColumn id="14" name="Impact" dataDxfId="7"/>
+    <tableColumn id="15" name="Priority" dataDxfId="6"/>
+    <tableColumn id="5" name="Business Line" dataDxfId="5"/>
+    <tableColumn id="8" name="Region" dataDxfId="4"/>
+    <tableColumn id="9" name="Sponsor" dataDxfId="3"/>
+    <tableColumn id="12" name="Requestor" dataDxfId="2"/>
+    <tableColumn id="16" name="Assignee" dataDxfId="1"/>
+    <tableColumn id="6" name="Comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -794,11 +820,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,19 +839,20 @@
     <col min="8" max="8" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="30.7109375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="24.42578125" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="12" width="16.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.7109375" style="2" customWidth="1"/>
+    <col min="21" max="21" width="24.42578125" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>2</v>
       </c>
@@ -857,31 +884,37 @@
         <v>15</v>
       </c>
       <c r="K1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>44278</v>
       </c>
@@ -913,31 +946,37 @@
         <v>46</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>44286</v>
       </c>
@@ -968,30 +1007,30 @@
       <c r="J3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T3" s="3"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>44293</v>
       </c>
@@ -1022,30 +1061,30 @@
       <c r="J4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="M4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="R4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="3"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T4" s="3"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>44300</v>
       </c>
@@ -1076,30 +1115,30 @@
       <c r="J5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="R5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>44316</v>
       </c>
@@ -1130,30 +1169,30 @@
       <c r="J6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R6" s="3"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>44323</v>
       </c>
@@ -1184,30 +1223,30 @@
       <c r="J7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>44326</v>
       </c>
@@ -1238,30 +1277,30 @@
       <c r="J8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="M8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="P8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="S8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="T8" s="3"/>
+    </row>
+    <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>44287</v>
       </c>
@@ -1293,29 +1332,35 @@
         <v>46</v>
       </c>
       <c r="K9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="R9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="S9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>44286</v>
       </c>
@@ -1346,30 +1391,30 @@
       <c r="J10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="R10" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="S10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="T10" s="3"/>
+    </row>
+    <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>44301</v>
       </c>
@@ -1400,30 +1445,30 @@
       <c r="J11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="M11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="R11" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="S11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>44256</v>
       </c>
@@ -1454,30 +1499,30 @@
       <c r="J12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="Q12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="R12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="S12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T12" s="3"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>44355</v>
       </c>
@@ -1505,29 +1550,35 @@
         <v>46</v>
       </c>
       <c r="K13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="Q13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="R13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Q13" s="2" t="s">
+      <c r="S13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R13" s="3"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T13" s="3"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>44357</v>
       </c>
@@ -1554,30 +1605,30 @@
       <c r="J14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="O14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="P14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="Q14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="R14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Q14" s="2" t="s">
+      <c r="S14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R14" s="3"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T14" s="3"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>44364</v>
       </c>
@@ -1604,30 +1655,30 @@
       <c r="J15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="M15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="Q15" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="R15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="Q15" s="2" t="s">
+      <c r="S15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R15" s="3"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T15" s="3"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>44368</v>
       </c>
@@ -1655,29 +1706,35 @@
         <v>46</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="M16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="Q16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="R16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q16" s="2" t="s">
+      <c r="S16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>44371</v>
       </c>
@@ -1704,30 +1761,30 @@
       <c r="J17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="O17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="Q17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="R17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="S17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R17" s="3"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T17" s="3"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>44375</v>
       </c>
@@ -1754,30 +1811,30 @@
       <c r="J18" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="M18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="P18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="Q18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="R18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Q18" s="2" t="s">
+      <c r="S18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R18" s="3"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T18" s="3"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>44379</v>
       </c>
@@ -1804,30 +1861,30 @@
       <c r="J19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="M19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="P19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="Q19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="R19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q19" s="2" t="s">
+      <c r="S19" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>44382</v>
       </c>
@@ -1855,29 +1912,35 @@
         <v>46</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="M20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="P20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="Q20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P20" s="2" t="s">
+      <c r="R20" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q20" s="2" t="s">
+      <c r="S20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R20" s="3"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T20" s="3"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>44389</v>
       </c>
@@ -1904,30 +1967,30 @@
       <c r="J21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="M21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="P21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="Q21" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="R21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="S21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R21" s="3"/>
-    </row>
-    <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="T21" s="3"/>
+    </row>
+    <row r="22" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>44392</v>
       </c>
@@ -1954,30 +2017,30 @@
       <c r="J22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="M22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="P22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="Q22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="R22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="S22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R22" s="3"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T22" s="3"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>44397</v>
       </c>
@@ -2003,29 +2066,35 @@
         <v>46</v>
       </c>
       <c r="K23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="N23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="O23" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="P23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="Q23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="R23" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q23" s="2" t="s">
+      <c r="S23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R23" s="3"/>
-    </row>
-    <row r="24" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="T23" s="3"/>
+    </row>
+    <row r="24" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>44404</v>
       </c>
@@ -2050,30 +2119,30 @@
       <c r="J24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="M24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="P24" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="Q24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="R24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Q24" s="2" t="s">
+      <c r="S24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R24" s="3"/>
-    </row>
-    <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="T24" s="3"/>
+    </row>
+    <row r="25" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>44411</v>
       </c>
@@ -2098,30 +2167,30 @@
       <c r="J25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="M25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="N25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="O25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="P25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="Q25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P25" s="2" t="s">
+      <c r="R25" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="S25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R25" s="3"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T25" s="3"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>44417</v>
       </c>
@@ -2146,30 +2215,30 @@
       <c r="J26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="M26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="N26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="O26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="P26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="Q26" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="P26" s="2" t="s">
+      <c r="R26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q26" s="2" t="s">
+      <c r="S26" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="R26" s="3"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T26" s="3"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>44424</v>
       </c>
@@ -2195,29 +2264,35 @@
         <v>46</v>
       </c>
       <c r="K27" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="N27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="O27" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="P27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="Q27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P27" s="2" t="s">
+      <c r="R27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Q27" s="2" t="s">
+      <c r="S27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R27" s="3"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T27" s="3"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>44431</v>
       </c>
@@ -2242,30 +2317,30 @@
       <c r="J28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="M28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="N28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="O28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N28" s="2" t="s">
+      <c r="P28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="Q28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="P28" s="2" t="s">
+      <c r="R28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Q28" s="2" t="s">
+      <c r="S28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R28" s="3"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T28" s="3"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>44438</v>
       </c>
@@ -2290,28 +2365,28 @@
       <c r="J29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="M29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N29" s="2" t="s">
+      <c r="P29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O29" s="2" t="s">
+      <c r="Q29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="P29" s="2" t="s">
+      <c r="R29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="Q29" s="2" t="s">
+      <c r="S29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R29" s="3"/>
+      <c r="T29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sample issues.xlsx
+++ b/sample issues.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Wilson\Documents\Python Scripts\tools\gantt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\wleong\Documents\_personal\gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33A06395-42CF-4F27-A653-AA103EA7F4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="119">
   <si>
     <t>Status</t>
   </si>
@@ -336,12 +328,66 @@
   </si>
   <si>
     <t>Analytics</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Compliance</t>
+  </si>
+  <si>
+    <t>Decrease cost of operations</t>
+  </si>
+  <si>
+    <t>Bots automation</t>
+  </si>
+  <si>
+    <t>Keep the lights on</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Integration with other apps</t>
+  </si>
+  <si>
+    <t>Defects</t>
+  </si>
+  <si>
+    <t>Fix defects</t>
+  </si>
+  <si>
+    <t>Know the clients</t>
+  </si>
+  <si>
+    <t>Customised pricing</t>
+  </si>
+  <si>
+    <t>Pricing</t>
+  </si>
+  <si>
+    <t>Improve data quality</t>
+  </si>
+  <si>
+    <t>Improve relevance</t>
+  </si>
+  <si>
+    <t>Data quality</t>
+  </si>
+  <si>
+    <t>Metrics calculations</t>
+  </si>
+  <si>
+    <t>Improve UX</t>
+  </si>
+  <si>
+    <t>Performance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="ddd\,\ dd\ mmm\ yyyy"/>
   </numFmts>
@@ -493,31 +539,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="data" displayName="data" ref="A1:T29" totalsRowShown="0">
-  <autoFilter ref="A1:T29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="data" displayName="data" ref="A1:T29" totalsRowShown="0">
+  <autoFilter ref="A1:T29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T29">
+    <sortCondition ref="H2:H29"/>
+    <sortCondition ref="A2:A29"/>
+  </sortState>
   <tableColumns count="20">
-    <tableColumn id="2" name="Date Opened" dataDxfId="19"/>
-    <tableColumn id="10" name="Task" dataDxfId="18"/>
-    <tableColumn id="17" name="Reference Date" dataDxfId="17"/>
-    <tableColumn id="18" name="Reference Date 2" dataDxfId="16">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date Opened" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Task" dataDxfId="18"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Reference Date" dataDxfId="17"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Reference Date 2" dataDxfId="16">
       <calculatedColumnFormula>data[[#This Row],[Reference Date]]+7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="Status" dataDxfId="15"/>
-    <tableColumn id="13" name="PctCompleted" dataDxfId="14"/>
-    <tableColumn id="11" name="ETA" dataDxfId="13"/>
-    <tableColumn id="7" name="App" dataDxfId="12"/>
-    <tableColumn id="4" name="Fix Component" dataDxfId="11"/>
-    <tableColumn id="1" name="Issue Category" dataDxfId="10"/>
-    <tableColumn id="20" name="Epic" dataDxfId="9"/>
-    <tableColumn id="19" name="Theme" dataDxfId="8"/>
-    <tableColumn id="14" name="Impact" dataDxfId="7"/>
-    <tableColumn id="15" name="Priority" dataDxfId="6"/>
-    <tableColumn id="5" name="Business Line" dataDxfId="5"/>
-    <tableColumn id="8" name="Region" dataDxfId="4"/>
-    <tableColumn id="9" name="Sponsor" dataDxfId="3"/>
-    <tableColumn id="12" name="Requestor" dataDxfId="2"/>
-    <tableColumn id="16" name="Assignee" dataDxfId="1"/>
-    <tableColumn id="6" name="Comment" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Status" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="PctCompleted" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="ETA" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="App" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Fix Component" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Issue Category" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Epic" dataDxfId="9"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Theme" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Impact" dataDxfId="7"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Priority" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Business Line" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Region" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Sponsor" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Requestor" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Assignee" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -819,12 +869,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,36 +1026,42 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>44286</v>
+        <v>44287</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C3" s="5">
-        <v>44316</v>
+        <v>44469</v>
       </c>
       <c r="D3" s="5">
-        <v>44323</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>27</v>
+        <v>44476</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="F3" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G3" s="5">
-        <v>44301</v>
+        <v>44561</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>42</v>
@@ -1020,46 +1076,48 @@
         <v>47</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T3" s="3"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>44293</v>
+        <v>44368</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="5">
-        <v>44347</v>
-      </c>
-      <c r="D4" s="5">
-        <v>44354</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>27</v>
+        <v>44</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="F4" s="3">
+        <v>80</v>
+      </c>
+      <c r="G4" s="5">
+        <v>44454</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="5">
-        <v>44330</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>72</v>
+      <c r="L4" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>45</v>
@@ -1074,67 +1132,67 @@
         <v>47</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T4" s="3"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>44300</v>
+        <v>44397</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="5">
-        <v>44347</v>
-      </c>
-      <c r="D5" s="5">
-        <v>44354</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>27</v>
+        <v>48</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="F5" s="3">
-        <v>100</v>
-      </c>
-      <c r="G5" s="5">
-        <v>44344</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G5" s="5"/>
       <c r="H5" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="K5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="M5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>47</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="T5" s="3"/>
     </row>
@@ -1169,6 +1227,12 @@
       <c r="J6" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="K6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="M6" s="2" t="s">
         <v>42</v>
       </c>
@@ -1194,28 +1258,24 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>44323</v>
+        <v>44355</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="5">
-        <v>44377</v>
-      </c>
-      <c r="D7" s="5">
-        <v>44384</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>27</v>
+        <v>57</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="F7" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G7" s="5">
-        <v>44407</v>
+        <v>44561</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>37</v>
@@ -1223,60 +1283,68 @@
       <c r="J7" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="K7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="M7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T7" s="3"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>44326</v>
+        <v>44382</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="5">
-        <v>44408</v>
-      </c>
-      <c r="D8" s="5">
-        <v>44415</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>27</v>
+        <v>58</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="F8" s="3">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G8" s="5">
-        <v>44439</v>
+        <v>44651</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="K8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="M8" s="2" t="s">
         <v>45</v>
       </c>
@@ -1284,49 +1352,43 @@
         <v>45</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>44287</v>
+        <v>44424</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="5">
-        <v>44469</v>
-      </c>
-      <c r="D9" s="5">
-        <v>44476</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F9" s="3">
-        <v>50</v>
-      </c>
-      <c r="G9" s="5">
-        <v>44561</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G9" s="5"/>
       <c r="H9" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>46</v>
@@ -1338,34 +1400,34 @@
         <v>97</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>44286</v>
+        <v>44323</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="C10" s="5">
         <v>44377</v>
@@ -1373,32 +1435,38 @@
       <c r="D10" s="5">
         <v>44384</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>6</v>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="F10" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G10" s="5">
-        <v>44469</v>
+        <v>44407</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>47</v>
@@ -1407,52 +1475,54 @@
         <v>63</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T10" s="3"/>
     </row>
-    <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>44301</v>
+        <v>44357</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="5">
-        <v>44469</v>
-      </c>
-      <c r="D11" s="5">
-        <v>44476</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
       <c r="E11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G11" s="5">
-        <v>44501</v>
+        <v>44651</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="K11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="M11" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>47</v>
@@ -1461,26 +1531,22 @@
         <v>63</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T11" s="3"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>44256</v>
+        <v>44389</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="5">
-        <v>44500</v>
-      </c>
-      <c r="D12" s="5">
-        <v>44507</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="4" t="s">
         <v>6</v>
       </c>
@@ -1488,131 +1554,145 @@
         <v>70</v>
       </c>
       <c r="G12" s="5">
-        <v>44561</v>
+        <v>44469</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="K12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="M12" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>47</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="T12" s="3"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>44355</v>
+        <v>44431</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F13" s="3">
-        <v>50</v>
-      </c>
-      <c r="G13" s="5">
-        <v>44561</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G13" s="5"/>
       <c r="H13" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="M13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N13" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="O13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T13" s="3"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>44357</v>
+        <v>44286</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4" t="s">
-        <v>6</v>
+        <v>67</v>
+      </c>
+      <c r="C14" s="5">
+        <v>44316</v>
+      </c>
+      <c r="D14" s="5">
+        <v>44323</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="F14" s="3">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="G14" s="5">
-        <v>44651</v>
+        <v>44301</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>46</v>
+        <v>1</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>47</v>
@@ -1621,69 +1701,79 @@
         <v>63</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T14" s="3"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>44364</v>
+        <v>44286</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="C15" s="5">
+        <v>44377</v>
+      </c>
+      <c r="D15" s="5">
+        <v>44384</v>
+      </c>
       <c r="E15" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="3">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G15" s="5">
         <v>44469</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>46</v>
+        <v>1</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>47</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T15" s="3"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>44368</v>
+        <v>44371</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1691,13 +1781,13 @@
         <v>6</v>
       </c>
       <c r="F16" s="3">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G16" s="5">
-        <v>44454</v>
+        <v>44501</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>38</v>
@@ -1706,16 +1796,16 @@
         <v>46</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>31</v>
@@ -1724,48 +1814,52 @@
         <v>47</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T16" s="3"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>44371</v>
+        <v>44404</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F17" s="3">
-        <v>75</v>
-      </c>
-      <c r="G17" s="5">
-        <v>44501</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G17" s="5"/>
       <c r="H17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>46</v>
+        <v>1</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>31</v>
@@ -1777,7 +1871,7 @@
         <v>63</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>34</v>
@@ -1786,21 +1880,25 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>44375</v>
+        <v>44293</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4" t="s">
-        <v>6</v>
+        <v>79</v>
+      </c>
+      <c r="C18" s="5">
+        <v>44347</v>
+      </c>
+      <c r="D18" s="5">
+        <v>44354</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="F18" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G18" s="5">
-        <v>44530</v>
+        <v>44330</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>22</v>
@@ -1811,6 +1909,12 @@
       <c r="J18" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="K18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="M18" s="2" t="s">
         <v>45</v>
       </c>
@@ -1827,40 +1931,50 @@
         <v>63</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="T18" s="3"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>44379</v>
+        <v>44301</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="C19" s="5">
+        <v>44469</v>
+      </c>
+      <c r="D19" s="5">
+        <v>44476</v>
+      </c>
       <c r="E19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F19" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G19" s="5">
         <v>44501</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="K19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="M19" s="2" t="s">
         <v>45</v>
       </c>
@@ -1868,28 +1982,28 @@
         <v>45</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>47</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="T19" s="3"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>44382</v>
+        <v>44375</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1897,25 +2011,25 @@
         <v>6</v>
       </c>
       <c r="F20" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G20" s="5">
-        <v>44651</v>
+        <v>44530</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>45</v>
@@ -1924,57 +2038,61 @@
         <v>45</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="S20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="T20" s="3"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>44389</v>
+        <v>44411</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F21" s="3">
-        <v>70</v>
-      </c>
-      <c r="G21" s="5">
-        <v>44469</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G21" s="5"/>
       <c r="H21" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>39</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>46</v>
+        <v>1</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>47</v>
@@ -1983,141 +2101,165 @@
         <v>63</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="T21" s="3"/>
     </row>
-    <row r="22" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>44392</v>
+        <v>44256</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="C22" s="5">
+        <v>44500</v>
+      </c>
+      <c r="D22" s="5">
+        <v>44507</v>
+      </c>
       <c r="E22" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F22" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G22" s="5">
-        <v>44498</v>
+        <v>44561</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="K22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="M22" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>82</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="T22" s="3"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>44397</v>
+        <v>44300</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
+      </c>
+      <c r="C23" s="5">
+        <v>44347</v>
+      </c>
+      <c r="D23" s="5">
+        <v>44354</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="G23" s="5">
+        <v>44344</v>
+      </c>
       <c r="H23" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>46</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>47</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="T23" s="3"/>
     </row>
-    <row r="24" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>44404</v>
+        <v>44379</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="G24" s="5">
+        <v>44501</v>
+      </c>
       <c r="H24" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>45</v>
@@ -2126,28 +2268,28 @@
         <v>45</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>47</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="T24" s="3"/>
     </row>
-    <row r="25" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>44411</v>
+        <v>44417</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -2159,13 +2301,19 @@
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>43</v>
@@ -2174,55 +2322,67 @@
         <v>43</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>47</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="T25" s="3"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>44417</v>
+        <v>44326</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="4" t="s">
-        <v>7</v>
+        <v>56</v>
+      </c>
+      <c r="C26" s="5">
+        <v>44408</v>
+      </c>
+      <c r="D26" s="5">
+        <v>44415</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="G26" s="5">
+        <v>44439</v>
+      </c>
       <c r="H26" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="K26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="M26" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>47</v>
@@ -2231,109 +2391,119 @@
         <v>82</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="T26" s="3"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>44424</v>
+        <v>44364</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="4" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="G27" s="5">
+        <v>44469</v>
+      </c>
       <c r="H27" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>46</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T27" s="3"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>44431</v>
+        <v>44392</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="4" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="G28" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="G28" s="5">
+        <v>44498</v>
+      </c>
       <c r="H28" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="S28" s="2" t="s">
         <v>32</v>
@@ -2365,6 +2535,12 @@
       <c r="J29" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="K29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="M29" s="2" t="s">
         <v>45</v>
       </c>
@@ -2391,9 +2567,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="D2:D12" calculatedColumn="1"/>
-  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
